--- a/conversion_table.xlsx
+++ b/conversion_table.xlsx
@@ -382,11 +382,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Angavo</t>
+          <t>Ankafobe</t>
         </is>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -397,11 +397,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vohidefo</t>
+          <t>Ivohiboro</t>
         </is>
       </c>
       <c r="C3">
-        <v>0.4444444444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -412,11 +412,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tsinjoriake</t>
+          <t>Tsinjoarivo Ambalaomby</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.5909090909090909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -427,11 +427,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Analalava</t>
+          <t>Anjajavy</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.4444444444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -457,11 +457,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tsitongambarika</t>
+          <t>Forêt Naturelle de Tsitongambarika</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.5588235294117647</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="8">
@@ -472,11 +472,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mahavavy Kinkony</t>
+          <t>Complexe Zones Humides Mahavavy Kinkony</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.5897435897435898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +532,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Montagne des Français</t>
+          <t>Ambohitr'Antsingy Montagne des Français</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.475</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="13">
@@ -547,11 +547,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampanangandehibe-Behasina</t>
+          <t>Complexe des Zones Humides de Bemanevika</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.7105263157894737</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14">
@@ -577,11 +577,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Behara Tranomaro</t>
+          <t>Behara-Tranomaro</t>
         </is>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="16">
@@ -652,7 +652,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ranobe bay</t>
+          <t>Ranobe Bay</t>
         </is>
       </c>
       <c r="C20">
@@ -697,11 +697,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ranobe PK32</t>
+          <t>Ranobe PK 32</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -727,11 +727,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nord-Ifotaka</t>
+          <t>Nord fotaky</t>
         </is>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26">
@@ -802,11 +802,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ampanangandehibe-Behasina</t>
+          <t>Ampanganandehibe-Behasina</t>
         </is>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="31">
@@ -832,11 +832,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ankeniheny-Zahamena</t>
+          <t>Corridor Ankeniheny Zahamena</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.3214285714285715</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="33">
@@ -847,11 +847,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ambositra-Vondrozo</t>
+          <t>Corridor Forestier Ambositra Vondrozo</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.5135135135135135</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="34">
@@ -922,11 +922,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Anjozorobe-Angavo</t>
+          <t>Complexe Anjozorobe Angavo</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.3461538461538461</v>
+        <v>0.03846153846153846</v>
       </c>
     </row>
     <row r="39">
@@ -937,11 +937,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Baie de Baly</t>
+          <t>Massif d'Ibity</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -952,11 +952,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pointe à Larrée</t>
+          <t>Réserve spéciale Pointe à Larrée</t>
         </is>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="41">
@@ -967,11 +967,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Vohidava-Betsimalaho</t>
+          <t>Vohidava Betsimalao</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="42">
@@ -982,11 +982,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Montagne des Français</t>
+          <t>Ambohitr'Antsingy Montagne des Français</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.4615384615384616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1027,11 +1027,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Analabe Betanatanana</t>
+          <t>Analabe-Betanatanana</t>
         </is>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="46">
@@ -1042,11 +1042,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Allée des Baobabs</t>
+          <t>Allées des Baobabs</t>
         </is>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="47">
@@ -1102,11 +1102,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Galoko-Kalobinono</t>
+          <t>Galoko Kalobinono</t>
         </is>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="51">
@@ -1147,11 +1147,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Alandraza Analavelo</t>
+          <t>Forêt Naturel de Petriky</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.5</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="54">
@@ -1162,11 +1162,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pointe à Larrée</t>
+          <t>Forêt Naturel de Petriky</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.7307692307692307</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="55">
@@ -1222,11 +1222,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cap Sainte Marie</t>
+          <t>Complexe des Zones Humides de Bemanevika</t>
         </is>
       </c>
       <c r="C58">
-        <v>0.7555555555555555</v>
+        <v>0.5111111111111111</v>
       </c>
     </row>
     <row r="59">
@@ -1237,11 +1237,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mangoky Ihotry</t>
+          <t>Complexe Zones Humides Mangoky Ihotry</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.6216216216216216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1327,11 +1327,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Montagne d'Ambre</t>
+          <t>Site Bioculturel d'Antrema</t>
         </is>
       </c>
       <c r="C65">
-        <v>0.6923076923076923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tsimembo Manambolomaty</t>
+          <t>Complexe Tsimembo Manambolomaty</t>
         </is>
       </c>
       <c r="C69">
-        <v>0.2903225806451613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1432,11 +1432,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ampotaka-Ankorabe</t>
+          <t>Ampotaka Ankorabe</t>
         </is>
       </c>
       <c r="C72">
-        <v>0.05882352941176471</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="73">
@@ -1462,11 +1462,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Mahavavy Kinkony</t>
+          <t>Complexe Zones Humides Mahavavy Kinkony</t>
         </is>
       </c>
       <c r="C74">
-        <v>0.36</v>
+        <v>0.358974358974359</v>
       </c>
     </row>
     <row r="75">
@@ -1477,11 +1477,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Analabe Betanatanana</t>
+          <t>Corridor Ankeniheny Zahamena</t>
         </is>
       </c>
       <c r="C75">
-        <v>0.6428571428571429</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="76">
@@ -1507,11 +1507,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ankeniheny-Zahamena</t>
+          <t>Corridor Ankeniheny Zahamena</t>
         </is>
       </c>
       <c r="C77">
-        <v>0.3571428571428572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1522,11 +1522,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ambositra-Vondrozo</t>
+          <t>Corridor Forestier Ambositra Vondrozo</t>
         </is>
       </c>
       <c r="C78">
-        <v>0.5405405405405406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1552,11 +1552,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Montagne des Français</t>
+          <t>Complexe des Zones Humides de Bemanevika</t>
         </is>
       </c>
       <c r="C80">
-        <v>0.7435897435897436</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="81">
@@ -1567,11 +1567,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tsimembo Manambolomaty</t>
+          <t>Complexe Tsimembo Manambolomaty</t>
         </is>
       </c>
       <c r="C81">
-        <v>0.3636363636363636</v>
+        <v>0.2903225806451613</v>
       </c>
     </row>
     <row r="82">
@@ -1582,11 +1582,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Tsitongambarika</t>
+          <t>Forêt Naturelle de Tsitongambarika</t>
         </is>
       </c>
       <c r="C82">
-        <v>0.375</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="83">
@@ -1612,11 +1612,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Allée des Baobabs</t>
+          <t>Allées des Baobabs</t>
         </is>
       </c>
       <c r="C84">
-        <v>0.05882352941176471</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="85">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Nord-Ifotaka</t>
+          <t>Nord fotaky</t>
         </is>
       </c>
       <c r="C85">
@@ -1642,11 +1642,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tampolo</t>
+          <t>Betampona</t>
         </is>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="87">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Anjozorobe-Angavo</t>
+          <t>Complexe Anjozorobe Angavo</t>
         </is>
       </c>
       <c r="C89">
-        <v>0.5405405405405406</v>
+        <v>0.4324324324324325</v>
       </c>
     </row>
     <row r="90">
@@ -1702,11 +1702,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Mikea</t>
+          <t>Complexe Bobaomby</t>
         </is>
       </c>
       <c r="C90">
-        <v>0.6428571428571429</v>
+        <v>0.4705882352941176</v>
       </c>
     </row>
     <row r="91">
@@ -1717,11 +1717,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Mahavavy Kinkony</t>
+          <t>Complexe Zones Humides Mahavavy Kinkony</t>
         </is>
       </c>
       <c r="C91">
-        <v>0.4</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="92">
@@ -1732,11 +1732,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Nosy Ve Androka</t>
+          <t>Complexe Bobaomby</t>
         </is>
       </c>
       <c r="C92">
-        <v>0.5</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="93">
@@ -1747,11 +1747,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ankeniheny-Zahamena</t>
+          <t>Corridor Ankeniheny Zahamena</t>
         </is>
       </c>
       <c r="C93">
-        <v>0.5</v>
+        <v>0.2894736842105263</v>
       </c>
     </row>
     <row r="94">
@@ -1762,11 +1762,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Bongolava</t>
+          <t>Corridor forestier Bongolava</t>
         </is>
       </c>
       <c r="C94">
-        <v>0.6785714285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1777,11 +1777,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Montagne des Français</t>
+          <t>Ambohitr'Antsingy Montagne des Français</t>
         </is>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="96">
@@ -1792,11 +1792,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Ambositra-Vondrozo</t>
+          <t>Corridor Forestier Ambositra Vondrozo</t>
         </is>
       </c>
       <c r="C96">
-        <v>0.631578947368421</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="97">
@@ -1852,11 +1852,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Nord-Ifotaka</t>
+          <t>Nord fotaky</t>
         </is>
       </c>
       <c r="C100">
-        <v>0.08333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="101">
@@ -1867,11 +1867,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Anjozorobe-Angavo</t>
+          <t>Complexe Anjozorobe Angavo</t>
         </is>
       </c>
       <c r="C101">
-        <v>0.5405405405405406</v>
+        <v>0.4324324324324325</v>
       </c>
     </row>
     <row r="102">
@@ -1882,11 +1882,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Itremo</t>
+          <t>Massif d'Itremo</t>
         </is>
       </c>
       <c r="C102">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -1987,11 +1987,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Kirindy Mité</t>
+          <t>Kirindy Mite</t>
         </is>
       </c>
       <c r="C109">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2062,11 +2062,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Nosy Tanikely</t>
+          <t>Nosy Tanihely</t>
         </is>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="115">
@@ -2077,8 +2077,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lokobe
-</t>
+          <t>Lokobe</t>
         </is>
       </c>
       <c r="C115">
@@ -2093,7 +2092,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sahamalaza-Iles Radama</t>
+          <t>Sahamalaza Iles Radama</t>
         </is>
       </c>
       <c r="C116">
@@ -2168,8 +2167,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Andringitra
-</t>
+          <t>Andringitra</t>
         </is>
       </c>
       <c r="C121">
@@ -2184,11 +2182,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Befotaka-Midongy du Sud</t>
+          <t>Befotaka Midongy</t>
         </is>
       </c>
       <c r="C122">
-        <v>0.3478260869565217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2199,11 +2197,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Zombitse-Vohibasia</t>
+          <t>Zombitse Vohibasia</t>
         </is>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="124">
@@ -2274,11 +2272,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Kirindy Mité</t>
+          <t>Kirindy Mite</t>
         </is>
       </c>
       <c r="C128">
-        <v>0.6071428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="129">
@@ -2289,11 +2287,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tsaratanàna</t>
+          <t>Tsaratanana</t>
         </is>
       </c>
       <c r="C129">
-        <v>0.5652173913043478</v>
+        <v>0.5217391304347826</v>
       </c>
     </row>
     <row r="130">
@@ -2349,11 +2347,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Antrema</t>
+          <t>Andreba</t>
         </is>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="134">
@@ -2379,11 +2377,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Galoko-Kalobinono</t>
+          <t>Complexe Zones Humides Mahavavy Kinkony</t>
         </is>
       </c>
       <c r="C135">
-        <v>0.6551724137931034</v>
+        <v>0.4871794871794872</v>
       </c>
     </row>
     <row r="136">
@@ -2424,11 +2422,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Petriky</t>
+          <t>Bemarivo</t>
         </is>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="139">
@@ -2454,11 +2452,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Behara Tranomaro</t>
+          <t>Behara-Tranomaro</t>
         </is>
       </c>
       <c r="C140">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -2469,11 +2467,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Cap Sainte Marie</t>
+          <t>Corridor forestier Bongolava</t>
         </is>
       </c>
       <c r="C141">
-        <v>0.6923076923076923</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="142">
@@ -2514,11 +2512,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ambondrobe</t>
+          <t>Zones humides d'Ambondrobe</t>
         </is>
       </c>
       <c r="C144">
-        <v>0.3333333333333333</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="145">
@@ -2544,7 +2542,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Alandraza Analavelo</t>
+          <t>Ampotaka Ankorabe</t>
         </is>
       </c>
       <c r="C146">
@@ -2559,11 +2557,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ankarabolava</t>
+          <t>Complexe Bobaomby</t>
         </is>
       </c>
       <c r="C147">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="148">
@@ -2604,11 +2602,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ambohidray</t>
+          <t>Vohimana</t>
         </is>
       </c>
       <c r="C150">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="151">
@@ -2649,11 +2647,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Vohidefo</t>
+          <t>Vohimana</t>
         </is>
       </c>
       <c r="C153">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="154">
@@ -2679,11 +2677,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Vohidefo</t>
+          <t>Ivohiboro</t>
         </is>
       </c>
       <c r="C155">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="156">
@@ -2704,16 +2702,16 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>pointe  larre</t>
+          <t>pointe larre</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Pointe à Larrée</t>
+          <t>Cap Sainte Marie</t>
         </is>
       </c>
       <c r="C157">
-        <v>0.1333333333333333</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="158">
@@ -2739,7 +2737,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Alandraza Analavelo</t>
+          <t>Analavelona</t>
         </is>
       </c>
       <c r="C159">
@@ -2784,7 +2782,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Ranobe bay</t>
+          <t>Ranobe Bay</t>
         </is>
       </c>
       <c r="C162">
@@ -2814,11 +2812,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Andrafiamena Andavakoera</t>
+          <t>Tsinjoarivo Ambalaomby</t>
         </is>
       </c>
       <c r="C164">
-        <v>0.7</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="165">
@@ -2859,7 +2857,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ampotaka-Ankorabe</t>
+          <t>Ampotaka Ankorabe</t>
         </is>
       </c>
       <c r="C167">
@@ -2934,11 +2932,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Ankarana</t>
+          <t>Ankingabe</t>
         </is>
       </c>
       <c r="C172">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="173">
@@ -2979,11 +2977,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Mangabe-Ranomena-Sahasarotra</t>
+          <t>Complexe des  AP Ambohimirahavavy Marivorahona</t>
         </is>
       </c>
       <c r="C175">
-        <v>0.7666666666666667</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="176">
@@ -2994,11 +2992,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Nosy Antsoha</t>
+          <t>Beampingaratsy</t>
         </is>
       </c>
       <c r="C176">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="177">
@@ -3009,11 +3007,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Behara Tranomaro</t>
+          <t>Behara-Tranomaro</t>
         </is>
       </c>
       <c r="C177">
-        <v>0.6578947368421053</v>
+        <v>0.6842105263157895</v>
       </c>
     </row>
     <row r="178">
@@ -3024,8 +3022,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lokobe
-</t>
+          <t>Lokobe</t>
         </is>
       </c>
       <c r="C178">
@@ -3040,7 +3037,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tsitongambarika</t>
+          <t>Loky Manambato</t>
         </is>
       </c>
       <c r="C179">
@@ -3055,11 +3052,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Andrafiamena Andavakoera</t>
+          <t>Corridor forestier Bongolava</t>
         </is>
       </c>
       <c r="C180">
-        <v>0.7105263157894737</v>
+        <v>0.3947368421052632</v>
       </c>
     </row>
     <row r="181">
@@ -3070,8 +3067,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Andringitra
-</t>
+          <t>Andringitra</t>
         </is>
       </c>
       <c r="C181">
@@ -3116,7 +3112,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Bezà-Mahafaly</t>
+          <t>Beza Mahafaly</t>
         </is>
       </c>
       <c r="C184">
@@ -3146,11 +3142,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Anjanaharibe-Sud</t>
+          <t>Anjanaharibe_sud</t>
         </is>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="187">
@@ -3221,11 +3217,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Pic d'Ivohibe</t>
+          <t>Ambodivahibe</t>
         </is>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="192">
@@ -3281,12 +3277,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tampoketsa d'Analamaitso
-</t>
+          <t>Tampoketsa Analamaitso</t>
         </is>
       </c>
       <c r="C195">
-        <v>0.2</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="196">
@@ -3312,8 +3307,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ambohijanahary
-</t>
+          <t>Ambohijanahary</t>
         </is>
       </c>
       <c r="C197">

--- a/conversion_table.xlsx
+++ b/conversion_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C197"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3314,6 +3314,21 @@
         <v>0</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>analamozaotra</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Analamazaotra</t>
+        </is>
+      </c>
+      <c r="C198">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
